--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18FDABB1-AAB7-4911-8D22-3825C6D445E3}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA8E9C4-CF41-47F8-AA44-563A6FC3DD67}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="整体框架" sheetId="1" r:id="rId1"/>
-    <sheet name="MVP阶段程序需求表格" sheetId="2" r:id="rId2"/>
-    <sheet name="美术需求表格" sheetId="3" r:id="rId3"/>
+    <sheet name="当前开发计划" sheetId="4" r:id="rId1"/>
+    <sheet name="整体框架" sheetId="1" r:id="rId2"/>
+    <sheet name="MVP阶段程序需求表格" sheetId="2" r:id="rId3"/>
+    <sheet name="美术需求表格" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
@@ -1160,12 +1161,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.4140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="A14:E14"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1803,12 +1821,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A12D7A6-F696-4C35-AED2-EBCE20992362}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1817,7 +1835,7 @@
     <col min="2" max="2" width="21.75" style="3" customWidth="1"/>
     <col min="3" max="3" width="55.9140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="48" style="3" customWidth="1"/>
+    <col min="5" max="5" width="54.75" style="3" customWidth="1"/>
     <col min="6" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
@@ -2417,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965A550D-356C-41DE-A7DE-759BDE9EB1E4}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BA8E9C4-CF41-47F8-AA44-563A6FC3DD67}"/>
+  <xr:revisionPtr revIDLastSave="448" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1CABC8E-93AA-4CBC-9DCC-8DB00A98E203}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="199">
   <si>
     <t>阶段</t>
   </si>
@@ -653,6 +653,90 @@
   </si>
   <si>
     <t>毒液塔技能实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期工时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善策划案，丰富细节设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁麟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成动态地图大小和摄像机缩放机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成游戏暂停机制，暂停界面UI开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成击飞塔，磁力塔，狙击塔的技能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成击退塔，裂地塔，激光塔，毒液塔的技能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据策划案和程序实际情况完成初版美术资源需求表的罗列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成前5个怪物技能的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后5个怪物技能的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计5个新防御塔，5个新怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,6 +962,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1162,15 +1247,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.4140625" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1825,7 +2068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A12D7A6-F696-4C35-AED2-EBCE20992362}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1CABC8E-93AA-4CBC-9DCC-8DB00A98E203}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72336C33-40E1-453A-9036-387793260FD6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当前开发计划" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="199">
   <si>
     <t>阶段</t>
   </si>
@@ -680,14 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成游戏暂停机制，暂停界面UI开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成击飞塔，磁力塔，狙击塔的技能开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,6 +729,14 @@
   </si>
   <si>
     <t>当前任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成游戏开始，结束，暂停机制，暂停界面UI开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估阵型机制的可玩性（实际开发出来测试，）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -878,7 +878,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -963,6 +963,8 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1247,10 +1249,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1261,7 +1263,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>178</v>
@@ -1274,143 +1276,151 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>187</v>
+      <c r="C2" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>187</v>
+      <c r="C3" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>187</v>
-      </c>
+      <c r="A4" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="29" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>182</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="29" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B6" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="29" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B7" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7" s="29" t="s">
         <v>185</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="29" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>182</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="29" t="s">
         <v>195</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B10" s="29" t="s">
         <v>182</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D10" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D11" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1424,9 +1434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9:E9"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1549,19 +1559,19 @@
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" ht="42" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1579,45 +1589,45 @@
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="7"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="19"/>
     </row>
     <row r="12" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="19"/>
     </row>
     <row r="13" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1661,19 +1671,19 @@
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
@@ -1730,19 +1740,19 @@
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
@@ -2069,7 +2079,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="465" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72336C33-40E1-453A-9036-387793260FD6}"/>
+  <xr:revisionPtr revIDLastSave="545" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34ED26C1-6824-4956-8E23-9671657CF45F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当前开发计划" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="206">
   <si>
     <t>阶段</t>
   </si>
@@ -664,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预期完成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完善策划案，丰富细节设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -684,10 +680,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3月底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2天</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -724,19 +716,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4月底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>当前任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成游戏开始，结束，暂停机制，暂停界面UI开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估阵型机制的可玩性（实际开发出来测试，）</t>
+    <t>当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏音效生成和添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被pass掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成游戏开始，结束，暂停机制，暂停界面的UI开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估阵型机制的可玩性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将位置联动机制融入到防御塔技能中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁麟/文杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +772,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -774,6 +802,13 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -878,7 +913,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -962,9 +997,19 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1249,21 +1294,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="33"/>
+    <col min="4" max="4" width="12.9140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>178</v>
@@ -1271,157 +1322,271 @@
       <c r="C1" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>202</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="B2" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="D2" s="40">
+        <v>45747</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="B3" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" s="40">
+        <v>45747</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="40">
+        <v>45747</v>
+      </c>
+      <c r="E4" s="41"/>
+      <c r="F4" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="35">
+        <v>45728</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="34" t="s">
+        <v>196</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="35">
+        <v>45733</v>
+      </c>
+      <c r="E6" s="36">
+        <v>1</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="35">
+        <v>45733</v>
+      </c>
+      <c r="E7" s="36">
+        <v>1</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="35">
+        <v>45734</v>
+      </c>
+      <c r="E8" s="36">
+        <v>1</v>
+      </c>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="29" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="35">
+        <v>45777</v>
+      </c>
+      <c r="E9" s="36">
+        <v>2</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="30" t="s">
-        <v>183</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" s="30" t="s">
+      <c r="B10" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" s="35">
+        <v>45777</v>
+      </c>
+      <c r="E10" s="36">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="B11" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D11" s="35">
+        <v>45777</v>
+      </c>
+      <c r="E11" s="36">
+        <v>2</v>
+      </c>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="C12" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="D12" s="35">
+        <v>45777</v>
+      </c>
+      <c r="E12" s="36">
+        <v>2</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="D13" s="35">
+        <v>45808</v>
+      </c>
+      <c r="E13" s="36">
+        <v>3</v>
+      </c>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>195</v>
-      </c>
+      <c r="B14" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="35">
+        <v>45808</v>
+      </c>
+      <c r="E14" s="36">
+        <v>3</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1434,9 +1599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="545" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34ED26C1-6824-4956-8E23-9671657CF45F}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5AA9E43-A977-43F3-B828-A979BC5401E4}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当前开发计划" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="215">
   <si>
     <t>阶段</t>
   </si>
@@ -765,6 +765,42 @@
   </si>
   <si>
     <t>祁麟/文杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏标题界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo以及主背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发：目前关卡胜利机制没实现，以及应该要有一个全局的变量，记录玩家打到了哪一关？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug：关卡配置中出生点索引错误，需要重新配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新功能：防御塔释放技能时显示一小段动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug：退出机制不完善导致内存泄漏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -913,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -999,17 +1035,14 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1025,10 +1058,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1294,22 +1323,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="51.6640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.6640625" style="33"/>
-    <col min="4" max="4" width="12.9140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="33" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.6640625" style="33"/>
+    <col min="1" max="1" width="72.08203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="31"/>
+    <col min="4" max="4" width="12.9140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.6640625" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
@@ -1325,268 +1354,326 @@
       <c r="D1" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="29" t="s">
         <v>194</v>
       </c>
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="36">
         <v>45747</v>
       </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="G2" s="39"/>
+      <c r="G2" s="35"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="36">
         <v>45747</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="39" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="G3" s="39"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="36">
         <v>45747</v>
       </c>
-      <c r="E4" s="41"/>
-      <c r="F4" s="39" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="35" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="36">
         <v>45728</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>0</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="29"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="35"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="35"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B9" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C9" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D9" s="38">
         <v>45733</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E9" s="37">
         <v>1</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F9" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="29" t="s">
+      <c r="G9" s="37"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B10" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C10" s="35" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D10" s="36">
         <v>45733</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E10" s="35">
         <v>1</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D8" s="35">
-        <v>45734</v>
-      </c>
-      <c r="E8" s="36">
-        <v>1</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="29" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D9" s="35">
-        <v>45777</v>
-      </c>
-      <c r="E9" s="36">
-        <v>2</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="35">
-        <v>45777</v>
-      </c>
-      <c r="E10" s="36">
-        <v>2</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="F10" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D11" s="35">
-        <v>45777</v>
-      </c>
-      <c r="E11" s="36">
-        <v>2</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="32"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="29" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D12" s="35">
-        <v>45777</v>
-      </c>
-      <c r="E12" s="36">
-        <v>2</v>
+        <v>185</v>
+      </c>
+      <c r="D12" s="33">
+        <v>45734</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1</v>
       </c>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="29" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="35">
-        <v>45808</v>
-      </c>
-      <c r="E13" s="36">
-        <v>3</v>
+        <v>187</v>
+      </c>
+      <c r="D13" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E13" s="32">
+        <v>2</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="29" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="D14" s="35">
-        <v>45808</v>
-      </c>
-      <c r="E14" s="36">
-        <v>3</v>
+      <c r="D14" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E14" s="32">
+        <v>2</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E15" s="32">
+        <v>2</v>
+      </c>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D16" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E16" s="32">
+        <v>2</v>
+      </c>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="33">
+        <v>45808</v>
+      </c>
+      <c r="E17" s="32">
+        <v>3</v>
+      </c>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="33">
+        <v>45808</v>
+      </c>
+      <c r="E18" s="32">
+        <v>3</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2855,12 +2942,34 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965A550D-356C-41DE-A7DE-759BDE9EB1E4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="17.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="576" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5AA9E43-A977-43F3-B828-A979BC5401E4}"/>
+  <xr:revisionPtr revIDLastSave="588" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89BB8B0-5421-4FDF-B34B-19EB7A54AD24}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3610" yWindow="4840" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当前开发计划" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="217">
   <si>
     <t>阶段</t>
   </si>
@@ -684,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成击退塔，裂地塔，激光塔，毒液塔的技能开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,107 +696,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成前5个怪物技能的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成后5个怪物技能的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计5个新防御塔，5个新怪物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截止完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏音效生成和添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被pass掉了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成游戏开始，结束，暂停机制，暂停界面的UI开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评估阵型机制的可玩性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将位置联动机制融入到防御塔技能中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祁麟/文杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏标题界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>logo以及主背景图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发：目前关卡胜利机制没实现，以及应该要有一个全局的变量，记录玩家打到了哪一关？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug：关卡配置中出生点索引错误，需要重新配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新功能：防御塔释放技能时显示一小段动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug：退出机制不完善导致内存泄漏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发：鼠标悬停在防御塔上时显示防御塔的属性和技能信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>根据策划案和程序实际情况完成初版美术资源需求表的罗列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成前5个怪物技能的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成后5个怪物技能的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计5个新防御塔，5个新怪物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前任务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>截止完成日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏音效生成和添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被pass掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成游戏开始，结束，暂停机制，暂停界面的UI开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>评估阵型机制的可玩性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将位置联动机制融入到防御塔技能中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祁麟/文杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏标题界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资源名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>logo以及主背景图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开发：目前关卡胜利机制没实现，以及应该要有一个全局的变量，记录玩家打到了哪一关？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug：关卡配置中出生点索引错误，需要重新配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2h</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新功能：防御塔释放技能时显示一小段动画</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bug：退出机制不完善导致内存泄漏</t>
+    <t>AI出初版游戏图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1058,6 +1066,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1323,11 +1335,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1343,7 +1355,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="29" t="s">
         <v>178</v>
@@ -1352,13 +1364,13 @@
         <v>179</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G1" s="29"/>
     </row>
@@ -1377,7 +1389,7 @@
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G2" s="35"/>
     </row>
@@ -1389,44 +1401,44 @@
         <v>181</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D3" s="36">
         <v>45747</v>
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="35" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D4" s="36">
         <v>45747</v>
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>184</v>
@@ -1438,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>181</v>
@@ -1453,30 +1465,30 @@
       <c r="D6" s="36"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>181</v>
@@ -1485,19 +1497,19 @@
       <c r="D8" s="36"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="37" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D9" s="38">
         <v>45733</v>
@@ -1506,19 +1518,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D10" s="36">
         <v>45733</v>
@@ -1527,103 +1539,99 @@
         <v>1</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="A11" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="29" t="s">
+      <c r="A12" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="33">
+      <c r="C12" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="38">
         <v>45734</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E13" s="37">
         <v>1</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="29" t="s">
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="B13" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="33">
+      <c r="B15" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="38">
         <v>45777</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E15" s="37">
         <v>2</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="33">
-        <v>45777</v>
-      </c>
-      <c r="E14" s="32">
-        <v>2</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="33">
-        <v>45777</v>
-      </c>
-      <c r="E15" s="32">
-        <v>2</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="29" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>187</v>
@@ -1639,41 +1647,79 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="29" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>181</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D17" s="33">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="E17" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="29"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D18" s="33">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="E18" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D19" s="33">
+        <v>45808</v>
+      </c>
+      <c r="E19" s="32">
+        <v>3</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" s="33">
+        <v>45808</v>
+      </c>
+      <c r="E20" s="32">
+        <v>3</v>
+      </c>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2944,7 +2990,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965A550D-356C-41DE-A7DE-759BDE9EB1E4}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -2955,18 +3001,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" t="s">
         <v>206</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" t="s">
         <v>207</v>
-      </c>
-      <c r="B2" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="588" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A89BB8B0-5421-4FDF-B34B-19EB7A54AD24}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE98AA9F-ADA4-4DB3-8406-3AF2D75E60BB}"/>
   <bookViews>
-    <workbookView xWindow="3610" yWindow="4840" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3610" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当前开发计划" sheetId="4" r:id="rId1"/>
@@ -776,10 +776,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发：目前关卡胜利机制没实现，以及应该要有一个全局的变量，记录玩家打到了哪一关？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bug：关卡配置中出生点索引错误，需要重新配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,15 +796,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发：鼠标悬停在防御塔上时显示防御塔的属性和技能信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>根据策划案和程序实际情况完成初版美术资源需求表的罗列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>AI出初版游戏图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发：鼠标点击防御塔显示其属性和技能信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发：设立全局的变量，记录玩家打到了哪一关？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,7 +1339,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>181</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="35"/>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>181</v>
@@ -1545,13 +1545,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>181</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D11" s="38"/>
       <c r="E11" s="37"/>
@@ -1559,23 +1559,23 @@
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="37" t="s">
+      <c r="A12" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B12" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="C12" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>181</v>
@@ -1594,7 +1594,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="37" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B14" s="37" t="s">
         <v>181</v>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="595" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE98AA9F-ADA4-4DB3-8406-3AF2D75E60BB}"/>
+  <xr:revisionPtr revIDLastSave="601" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AD437BC-D161-4BD0-BCA8-56A5C78381EC}"/>
   <bookViews>
-    <workbookView xWindow="3610" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="1750" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当前开发计划" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="218">
   <si>
     <t>阶段</t>
   </si>
@@ -808,7 +808,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发：设立全局的变量，记录玩家打到了哪一关？</t>
+    <t>解决怪物路线异常问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增怪物路线展示功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1335,11 +1339,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1544,116 +1548,104 @@
       <c r="G10" s="35"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
+        <v>184</v>
+      </c>
+      <c r="D12" s="36">
+        <v>45734</v>
+      </c>
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="38">
-        <v>45734</v>
-      </c>
-      <c r="E13" s="37">
-        <v>1</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="A13" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="A14" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="37" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="38">
-        <v>45777</v>
-      </c>
-      <c r="E15" s="37">
-        <v>2</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D16" s="33">
+      <c r="A16" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D16" s="38">
         <v>45777</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="37">
         <v>2</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="29" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B17" s="29" t="s">
         <v>181</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D17" s="33">
         <v>45777</v>
@@ -1666,10 +1658,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C18" s="29" t="s">
         <v>186</v>
@@ -1685,19 +1677,19 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D19" s="33">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="E19" s="32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -1707,7 +1699,7 @@
         <v>190</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>187</v>
@@ -1720,6 +1712,25 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="33">
+        <v>45808</v>
+      </c>
+      <c r="E21" s="32">
+        <v>3</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="601" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AD437BC-D161-4BD0-BCA8-56A5C78381EC}"/>
+  <xr:revisionPtr revIDLastSave="702" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3FA29A9-2E78-4400-A6E6-FCAB861D89B0}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="1750" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="当前开发计划" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="232">
   <si>
     <t>阶段</t>
   </si>
@@ -720,10 +720,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏音效生成和添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文杰</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,10 +752,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>祁麟/文杰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>界面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,6 +805,70 @@
   </si>
   <si>
     <t>新增怪物路线展示功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔按钮优化，改为拖拽放置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增中文字符集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈晓东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成就系统开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图鉴功能开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏新手教程开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械时钟关卡核心机制，指针和防御塔重叠会加buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子表关卡核心机制，指针和防御塔重叠会加buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家数据记录系统开发:游戏过程中需要记录的玩家数据，为后续的成就，图鉴，排行榜做铺垫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数值平衡，先配好前3关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复tips信息无法显示bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏按钮音效添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔攻击音效添加（打好桩，不同防御塔音效不同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物死亡音效添加（打好桩，不同怪物音效不同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔技能音效添加（打好桩，不同防御塔音效不同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御塔暴走音效添加（打好桩，不同防御塔音效不同）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1339,11 +1395,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1371,7 +1427,7 @@
         <v>193</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>192</v>
@@ -1393,7 +1449,7 @@
       </c>
       <c r="E2" s="35"/>
       <c r="F2" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G2" s="35"/>
     </row>
@@ -1412,13 +1468,13 @@
       </c>
       <c r="E3" s="35"/>
       <c r="F3" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="35" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="35" t="s">
         <v>181</v>
@@ -1431,18 +1487,18 @@
       </c>
       <c r="E4" s="35"/>
       <c r="F4" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="35" t="s">
         <v>196</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="35" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C5" s="35" t="s">
         <v>184</v>
@@ -1454,13 +1510,13 @@
         <v>0</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G5" s="35"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>181</v>
@@ -1469,30 +1525,30 @@
       <c r="D6" s="36"/>
       <c r="E6" s="35"/>
       <c r="F6" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G6" s="35"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="35"/>
       <c r="F7" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>181</v>
@@ -1501,236 +1557,470 @@
       <c r="D8" s="36"/>
       <c r="E8" s="35"/>
       <c r="F8" s="35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="36">
+        <v>45747</v>
+      </c>
+      <c r="E9" s="35">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D9" s="38">
-        <v>45733</v>
-      </c>
-      <c r="E9" s="37">
-        <v>1</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="35" t="s">
-        <v>199</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C10" s="35" t="s">
+      <c r="D10" s="38"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="36">
-        <v>45733</v>
-      </c>
-      <c r="E10" s="35">
-        <v>1</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D12" s="36">
-        <v>45734</v>
-      </c>
-      <c r="E12" s="35">
-        <v>1</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
+      <c r="A12" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
+      <c r="A13" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="36">
+        <v>45733</v>
+      </c>
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G14" s="35"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15" s="35"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="36">
+        <v>45734</v>
+      </c>
+      <c r="E16" s="35">
+        <v>1</v>
+      </c>
+      <c r="F16" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="35"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" s="35"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="35"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="35"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B15" s="37" t="s">
+      <c r="B20" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" s="35"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="38"/>
+      <c r="E22" s="37">
+        <v>1</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G22" s="37"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="35" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>181</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="D23" s="36"/>
+      <c r="E23" s="35">
+        <v>1</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G23" s="35"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C24" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="37" t="s">
+      <c r="D24" s="38"/>
+      <c r="E24" s="37">
+        <v>1</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" s="37"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="37"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="37">
+        <v>1</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" s="37"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="37">
+        <v>1</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="37"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="32">
+        <v>1</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="37" t="s">
+      <c r="B28" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D28" s="33">
         <v>45777</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E28" s="32">
         <v>2</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="29" t="s">
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="29" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="B29" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E29" s="32">
+        <v>2</v>
+      </c>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32">
+        <v>3</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="32">
+        <v>3</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E32" s="32">
+        <v>2</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E33" s="32">
+        <v>2</v>
+      </c>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D17" s="33">
-        <v>45777</v>
-      </c>
-      <c r="E17" s="32">
-        <v>2</v>
-      </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="33">
-        <v>45777</v>
-      </c>
-      <c r="E18" s="32">
-        <v>2</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="29" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D19" s="33">
-        <v>45777</v>
-      </c>
-      <c r="E19" s="32">
-        <v>2</v>
-      </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="29" t="s">
+      <c r="D34" s="33">
+        <v>45808</v>
+      </c>
+      <c r="E34" s="32">
+        <v>3</v>
+      </c>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B20" s="29" t="s">
-        <v>181</v>
-      </c>
-      <c r="C20" s="29" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D35" s="33">
         <v>45808</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E35" s="32">
         <v>3</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="29" t="s">
-        <v>190</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>187</v>
-      </c>
-      <c r="D21" s="33">
-        <v>45808</v>
-      </c>
-      <c r="E21" s="32">
-        <v>3</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3012,18 +3302,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
         <v>204</v>
-      </c>
-      <c r="B1" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B2" t="s">
         <v>205</v>
-      </c>
-      <c r="B2" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="702" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3FA29A9-2E78-4400-A6E6-FCAB861D89B0}"/>
+  <xr:revisionPtr revIDLastSave="743" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7929B72-8CD1-45B7-81E0-60DB448E245D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+  <metadataTypes count="1">
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="243">
   <si>
     <t>阶段</t>
   </si>
@@ -728,10 +750,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被pass掉了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>进行中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -869,6 +887,54 @@
   </si>
   <si>
     <t>防御塔暴走音效添加（打好桩，不同防御塔音效不同）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug：时钟指针显示时会挡住怪物和防御塔，需要调整层级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug：第二关的关卡机制实现有问题，防御塔会莫名消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：感觉目前的提前放怪可以再改一下，这边的怪刚放出来就应该开放另一个口的提前放怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化：目前start按钮可以提前放怪时应该有提示信息才对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug：爆炸塔的炸弹貌似不生效，并没有产生范围伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发：现在防御塔还不支持AOE攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增记录玩家通关的功能，并且为通关的关卡上锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机制修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影响数值平衡测试的bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时不做了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +982,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +1055,18 @@
         <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1017,7 +1095,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1111,6 +1189,9 @@
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1130,6 +1211,70 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <rv s="0">
+    <v>0</v>
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="1">
+  <s t="_localImage">
+    <k n="_rvRel:LocalImageIdentifier" t="i"/>
+    <k n="CalcOrigin" t="i"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
+<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <rel r:id="rId1"/>
+</richValueRels>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,11 +1540,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73BAEEA0-8F0D-4C15-80F4-5487F619DD7F}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1409,7 +1554,7 @@
     <col min="4" max="4" width="12.9140625" style="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.83203125" style="31" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5" style="31" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="31"/>
   </cols>
   <sheetData>
@@ -1427,12 +1572,14 @@
         <v>193</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>192</v>
       </c>
-      <c r="G1" s="29"/>
+      <c r="G1" s="29" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="35" t="s">
@@ -1473,50 +1620,52 @@
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="40" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="41">
+        <v>45747</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="35" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" s="36">
-        <v>45747</v>
-      </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35" t="s">
+      <c r="C5" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="41">
+        <v>45728</v>
+      </c>
+      <c r="E5" s="40">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="35" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="36">
-        <v>45728</v>
-      </c>
-      <c r="E5" s="35">
-        <v>0</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="G5" s="35"/>
+      <c r="G5" s="40" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" s="35" t="s">
         <v>181</v>
@@ -1531,13 +1680,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B7" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="35"/>
@@ -1548,7 +1697,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B8" s="35" t="s">
         <v>181</v>
@@ -1563,7 +1712,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>194</v>
@@ -1584,7 +1733,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>194</v>
@@ -1595,13 +1744,13 @@
       <c r="D10" s="38"/>
       <c r="E10" s="37"/>
       <c r="F10" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>194</v>
@@ -1612,13 +1761,13 @@
       <c r="D11" s="38"/>
       <c r="E11" s="37"/>
       <c r="F11" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>194</v>
@@ -1629,13 +1778,13 @@
       <c r="D12" s="38"/>
       <c r="E12" s="37"/>
       <c r="F12" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="37" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>194</v>
@@ -1646,13 +1795,13 @@
       <c r="D13" s="38"/>
       <c r="E13" s="37"/>
       <c r="F13" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B14" s="35" t="s">
         <v>181</v>
@@ -1673,13 +1822,13 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="35" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B15" s="35" t="s">
         <v>181</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="36"/>
       <c r="E15" s="35"/>
@@ -1690,7 +1839,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="35" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="35" t="s">
         <v>181</v>
@@ -1709,9 +1858,9 @@
       </c>
       <c r="G16" s="35"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B17" s="35" t="s">
         <v>181</v>
@@ -1724,9 +1873,9 @@
       </c>
       <c r="G17" s="35"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B18" s="35" t="s">
         <v>181</v>
@@ -1739,9 +1888,9 @@
       </c>
       <c r="G18" s="35"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B19" s="35" t="s">
         <v>181</v>
@@ -1754,9 +1903,9 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B20" s="35" t="s">
         <v>181</v>
@@ -1769,9 +1918,9 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="35" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="35" t="s">
         <v>181</v>
@@ -1784,9 +1933,9 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="37" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>181</v>
@@ -1799,13 +1948,13 @@
         <v>1</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G22" s="37"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="35" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B23" s="35" t="s">
         <v>181</v>
@@ -1822,48 +1971,46 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="B24" s="37" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B24" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="35"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="C25" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="38"/>
-      <c r="E24" s="37">
-        <v>1</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
-        <v>222</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C25" s="37"/>
       <c r="D25" s="38"/>
       <c r="E25" s="37">
         <v>1</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
@@ -1871,156 +2018,262 @@
         <v>1</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G26" s="37"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="B27" s="32" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="37">
+        <v>1</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B28" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="32">
+      <c r="C28" s="32"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="32">
         <v>1</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="C28" s="32" t="s">
-        <v>186</v>
-      </c>
-      <c r="D28" s="33">
-        <v>45777</v>
-      </c>
-      <c r="E28" s="32">
-        <v>2</v>
       </c>
       <c r="F28" s="32"/>
       <c r="G28" s="32"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="29" t="s">
-        <v>185</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>186</v>
-      </c>
-      <c r="D29" s="33">
-        <v>45777</v>
-      </c>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="32">
-        <v>2</v>
-      </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="31" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="32" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="B30" s="32"/>
       <c r="C30" s="32"/>
       <c r="D30" s="33"/>
-      <c r="E30" s="32">
-        <v>3</v>
+      <c r="E30" s="39">
+        <v>0</v>
       </c>
       <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G30" s="32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="32" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="B31" s="32"/>
       <c r="C31" s="32"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32">
+        <v>1</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="39">
+        <v>0</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="39">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="32">
+        <v>2</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C35" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E35" s="32">
+        <v>2</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="33">
+        <v>45777</v>
+      </c>
+      <c r="E36" s="32">
+        <v>2</v>
+      </c>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="32">
         <v>3</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A32" s="29" t="s">
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="32">
+        <v>3</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="29" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D32" s="33">
+      <c r="D39" s="33">
         <v>45777</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E39" s="32">
         <v>2</v>
       </c>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A33" s="29" t="s">
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="29" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="29" t="s">
         <v>186</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D40" s="33">
         <v>45777</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E40" s="32">
         <v>2</v>
       </c>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A34" s="29" t="s">
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="29" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D34" s="33">
+      <c r="D41" s="33">
         <v>45808</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E41" s="32">
         <v>3</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" s="29" t="s">
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="29" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D42" s="33">
         <v>45808</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E42" s="32">
         <v>3</v>
       </c>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3302,18 +3555,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/游戏开发文档/250225-游戏开发计划.xlsx
+++ b/游戏开发文档/250225-游戏开发计划.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klin\OneDrive\Desktop\workspace\game_design\project2_Demo\Time_Guardian\Time Guardian\游戏开发文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="743" documentId="11_AD4DA82427541F7ACA7EB8FBA00C22386AE8DE17" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7929B72-8CD1-45B7-81E0-60DB448E245D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0735FE2-A8C0-4E56-8567-3374DFBE25CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="244">
   <si>
     <t>阶段</t>
   </si>
@@ -935,6 +935,10 @@
   </si>
   <si>
     <t>暂时不做了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先不急着给数值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1207,10 +1211,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1543,8 +1543,8 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
@@ -1987,23 +1987,25 @@
       <c r="G24" s="35"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="40" t="s">
         <v>181</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="38"/>
-      <c r="E25" s="37">
+      <c r="D25" s="41"/>
+      <c r="E25" s="40">
         <v>1</v>
       </c>
-      <c r="F25" s="37" t="s">
+      <c r="F25" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="40" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="37" t="s">
